--- a/biology/Botanique/Rembrandt_(rose)/Rembrandt_(rose).xlsx
+++ b/biology/Botanique/Rembrandt_(rose)/Rembrandt_(rose).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 'Rembrandt' est un cultivar de rosier obtenu en France par 
-Moreau-Robert en 1883[1]. Son nom est un hommage au peintre Rembrandt (1606-1669). Il est peu commercialisé aujourd'hui[2].
+Moreau-Robert en 1883. Son nom est un hommage au peintre Rembrandt (1606-1669). Il est peu commercialisé aujourd'hui.
 </t>
         </is>
       </c>
@@ -513,11 +525,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce rosier de Portland a été obtenu à une époque tardive, alors que la mode était plutôt depuis longtemps aux hybrides remontants, mais il a toujours comblé les amateurs par l'originalité des nuances de ses fleurs.
-Ce rosier au feuillage vert moyen et au port érigé s'élève à 120 cm. Ses fleurs légèrement parfumées sont petites à moyennes (8 cm[3]), de couleur carmin nuancé de pourpre, avec parfois de très petites veines blanches ; elles sont en coupe plate et très pleines[2].
-Ce rosier peut être légèrement remontant. Il est fort apprécié des connaisseurs par la délicatesse de ses couleurs et par son caractère vigoureux (sa zone de rusticité descend à 4b). On peut l'admirer notamment à l'Europa-Rosarium de Sangerhausen[3].
+Ce rosier au feuillage vert moyen et au port érigé s'élève à 120 cm. Ses fleurs légèrement parfumées sont petites à moyennes (8 cm), de couleur carmin nuancé de pourpre, avec parfois de très petites veines blanches ; elles sont en coupe plate et très pleines.
+Ce rosier peut être légèrement remontant. Il est fort apprécié des connaisseurs par la délicatesse de ses couleurs et par son caractère vigoureux (sa zone de rusticité descend à 4b). On peut l'admirer notamment à l'Europa-Rosarium de Sangerhausen.
 </t>
         </is>
       </c>
